--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -542,7 +542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -586,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="5">
         <v>30</v>
@@ -600,19 +602,19 @@
         <v>40849</v>
       </c>
       <c r="C3" s="4">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D3" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -720,7 +722,7 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -729,7 +731,7 @@
         <v>6</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,7 +837,7 @@
         <v>0.375</v>
       </c>
       <c r="D13" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>14</v>
@@ -844,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -950,7 +952,7 @@
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
@@ -959,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,7 +1067,7 @@
         <v>0.375</v>
       </c>
       <c r="D23" s="4">
-        <v>0.125</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>14</v>
@@ -1074,7 +1076,7 @@
         <v>6</v>
       </c>
       <c r="G23" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1083,11 +1085,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(G2:G23)/60</f>
-        <v>8.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1096,7 +1098,7 @@
       </c>
       <c r="F25" s="13">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G25" s="14"/>
     </row>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -542,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -625,7 +626,7 @@
         <v>40850</v>
       </c>
       <c r="C4" s="4">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D4" s="4">
         <v>0.27083333333333331</v>
@@ -648,7 +649,7 @@
         <v>40851</v>
       </c>
       <c r="C5" s="4">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D5" s="4">
         <v>0.27083333333333331</v>
@@ -657,7 +658,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="11">
         <v>30</v>
@@ -673,7 +674,7 @@
         <v>40854</v>
       </c>
       <c r="C6" s="4">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D6" s="4">
         <v>0.27083333333333331</v>
@@ -682,7 +683,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="5">
         <v>30</v>
@@ -695,20 +696,20 @@
       <c r="B7" s="3">
         <v>40855</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.27083333333333331</v>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,16 +746,16 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G9" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -768,16 +769,16 @@
         <v>0.375</v>
       </c>
       <c r="D10" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -791,16 +792,16 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -814,16 +815,16 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -860,16 +861,16 @@
         <v>0.375</v>
       </c>
       <c r="D14" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G14" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -883,16 +884,16 @@
         <v>0.375</v>
       </c>
       <c r="D15" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G15" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -906,16 +907,16 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -929,16 +930,16 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -975,16 +976,16 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G19" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -998,16 +999,16 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1021,16 +1022,16 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,16 +1045,16 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,11 +1086,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(G2:G23)/60</f>
-        <v>11</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1098,7 +1099,7 @@
       </c>
       <c r="F25" s="13">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G25" s="14"/>
     </row>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -723,13 +723,13 @@
         <v>0.375</v>
       </c>
       <c r="D8" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.1875</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G8" s="5">
         <v>30</v>
@@ -746,16 +746,16 @@
         <v>0.375</v>
       </c>
       <c r="D9" s="4">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -792,7 +792,7 @@
         <v>0.375</v>
       </c>
       <c r="D11" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>14</v>
@@ -801,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -815,7 +815,7 @@
         <v>0.375</v>
       </c>
       <c r="D12" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>14</v>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -907,7 +907,7 @@
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -916,7 +916,7 @@
         <v>9</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -930,7 +930,7 @@
         <v>0.375</v>
       </c>
       <c r="D17" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
@@ -939,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1022,7 +1022,7 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1031,7 +1031,7 @@
         <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,7 +1045,7 @@
         <v>0.375</v>
       </c>
       <c r="D22" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>14</v>
@@ -1054,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="G22" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1086,11 +1086,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(G2:G23)/60</f>
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F25" s="13">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G25" s="14"/>
     </row>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -696,17 +696,17 @@
       <c r="B7" s="3">
         <v>40855</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
+      <c r="C7" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>
@@ -834,20 +834,20 @@
       <c r="B13" s="3">
         <v>40863</v>
       </c>
-      <c r="C13" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.14583333333333334</v>
+      <c r="C13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1086,11 +1086,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(G2:G23)/60</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F25" s="13">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G25" s="14"/>
     </row>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Sábado</t>
   </si>
 </sst>
 </file>
@@ -543,7 +546,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -857,17 +860,17 @@
       <c r="B14" s="3">
         <v>40864</v>
       </c>
-      <c r="C14" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.25</v>
+      <c r="C14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="6">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <v>0</v>
@@ -881,7 +884,7 @@
         <v>40865</v>
       </c>
       <c r="C15" s="4">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D15" s="4">
         <v>0.25</v>
@@ -890,41 +893,41 @@
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
-        <v>40868</v>
+        <v>40866</v>
       </c>
       <c r="C16" s="4">
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.125</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G16" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>40869</v>
+        <v>40868</v>
       </c>
       <c r="C17" s="4">
         <v>0.375</v>
@@ -944,22 +947,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3">
-        <v>40870</v>
+        <v>40869</v>
       </c>
       <c r="C18" s="4">
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G18" s="5">
         <v>30</v>
@@ -967,33 +970,33 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="3">
-        <v>40871</v>
+        <v>40870</v>
       </c>
       <c r="C19" s="4">
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.25</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="3">
-        <v>40872</v>
+        <v>40871</v>
       </c>
       <c r="C20" s="4">
         <v>0.375</v>
@@ -1013,16 +1016,16 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>40875</v>
+        <v>40872</v>
       </c>
       <c r="C21" s="4">
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1031,15 +1034,15 @@
         <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3">
-        <v>40876</v>
+        <v>40875</v>
       </c>
       <c r="C22" s="4">
         <v>0.375</v>
@@ -1059,53 +1062,76 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3">
+        <v>40876</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.27083333333333331</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="6">
+        <v>9</v>
+      </c>
+      <c r="G23" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3">
         <v>40877</v>
       </c>
-      <c r="C23" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C24" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="4">
         <v>0.14583333333333334</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6">
         <v>6</v>
       </c>
-      <c r="G23" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="9" t="s">
+      <c r="G24" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="8">
-        <f>SUM(F2:F23)</f>
-        <v>172</v>
-      </c>
-      <c r="G24" s="8">
-        <f>SUM(G2:G23)/60</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8">
+        <f>SUM(F2:F24)</f>
+        <v>168</v>
+      </c>
+      <c r="G25" s="8">
+        <f>SUM(G2:G24)/60</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="13">
-        <f>ROUND(SUM(F24:G24),0)</f>
-        <v>180</v>
-      </c>
-      <c r="G25" s="14"/>
+      <c r="F26" s="13">
+        <f>ROUND(SUM(F25:G25),0)</f>
+        <v>176</v>
+      </c>
+      <c r="G26" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -66,7 +66,7 @@
     <t>-</t>
   </si>
   <si>
-    <t>Sábado</t>
+    <t>Sabado</t>
   </si>
 </sst>
 </file>
@@ -887,47 +887,47 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="D15" s="4">
-        <v>0.25</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3">
-        <v>40866</v>
+        <v>40868</v>
       </c>
       <c r="C16" s="4">
         <v>0.375</v>
       </c>
       <c r="D16" s="4">
-        <v>0.125</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>40868</v>
+        <v>40869</v>
       </c>
       <c r="C17" s="4">
         <v>0.375</v>
@@ -947,22 +947,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B18" s="3">
-        <v>40869</v>
+        <v>40870</v>
       </c>
       <c r="C18" s="4">
         <v>0.375</v>
       </c>
       <c r="D18" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.14583333333333334</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F18" s="6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5">
         <v>30</v>
@@ -970,33 +970,33 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19" s="3">
-        <v>40870</v>
+        <v>40871</v>
       </c>
       <c r="C19" s="4">
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.14583333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F19" s="6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G19" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>40871</v>
+        <v>40872</v>
       </c>
       <c r="C20" s="4">
         <v>0.375</v>
@@ -1016,22 +1016,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>40872</v>
+        <v>40873</v>
       </c>
       <c r="C21" s="4">
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.25</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="G25" s="8">
         <f>SUM(G2:G24)/60</f>
-        <v>8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -907,7 +907,7 @@
         <v>40868</v>
       </c>
       <c r="C16" s="4">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D16" s="4">
         <v>0.27083333333333331</v>
@@ -916,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G16" s="5">
         <v>30</v>
@@ -1025,13 +1025,13 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.20833333333333334</v>
+        <v>0.25</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="5">
         <v>0</v>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="F25" s="8">
         <f>SUM(F2:F24)</f>
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G25" s="8">
         <f>SUM(G2:G24)/60</f>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F26" s="13">
         <f>ROUND(SUM(F25:G25),0)</f>
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G26" s="14"/>
     </row>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
   <si>
     <t>Día</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Sabado</t>
   </si>
 </sst>
 </file>
@@ -209,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -245,6 +242,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,7 +544,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -677,16 +675,16 @@
         <v>40854</v>
       </c>
       <c r="C6" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D6" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" s="5">
         <v>30</v>
@@ -700,10 +698,10 @@
         <v>40855</v>
       </c>
       <c r="C7" s="4">
-        <v>0.375</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D7" s="4">
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -712,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -723,20 +721,21 @@
         <v>40856</v>
       </c>
       <c r="C8" s="4">
-        <v>0.375</v>
+        <v>0.38541666666666669</v>
       </c>
       <c r="D8" s="4">
-        <v>0.1875</v>
+        <v>0.28125</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="5">
         <v>30</v>
       </c>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -772,17 +771,18 @@
         <v>0.375</v>
       </c>
       <c r="D10" s="4">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -979,7 +979,7 @@
         <v>0.375</v>
       </c>
       <c r="D19" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>14</v>
@@ -988,7 +988,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>0.375</v>
       </c>
       <c r="D20" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>14</v>
@@ -1011,21 +1011,21 @@
         <v>9</v>
       </c>
       <c r="G20" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3">
-        <v>40873</v>
+        <v>40875</v>
       </c>
       <c r="C21" s="4">
         <v>0.375</v>
       </c>
       <c r="D21" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>14</v>
@@ -1034,15 +1034,15 @@
         <v>9</v>
       </c>
       <c r="G21" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3">
-        <v>40875</v>
+        <v>40876</v>
       </c>
       <c r="C22" s="4">
         <v>0.375</v>
@@ -1062,10 +1062,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B23" s="3">
-        <v>40876</v>
+        <v>40877</v>
       </c>
       <c r="C23" s="4">
         <v>0.375</v>
@@ -1084,54 +1084,31 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3">
-        <v>40877</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D24" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="6">
-        <v>6</v>
-      </c>
-      <c r="G24" s="5">
-        <v>30</v>
+      <c r="E24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="8">
+        <f>SUM(F2:F23)</f>
+        <v>166</v>
+      </c>
+      <c r="G24" s="8">
+        <f>SUM(G2:G23)/60</f>
+        <v>9.5</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="8">
-        <f>SUM(F2:F24)</f>
-        <v>167</v>
-      </c>
-      <c r="G25" s="8">
-        <f>SUM(G2:G24)/60</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="13">
-        <f>ROUND(SUM(F25:G25),0)</f>
-        <v>175</v>
-      </c>
-      <c r="G26" s="14"/>
+      <c r="F25" s="13">
+        <f>ROUND(SUM(F24:G24),0)</f>
+        <v>176</v>
+      </c>
+      <c r="G25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F25:G25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -236,13 +236,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +735,7 @@
       <c r="G8" s="5">
         <v>30</v>
       </c>
-      <c r="I8" s="15"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -782,7 +782,7 @@
       <c r="G10" s="5">
         <v>30</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -930,19 +930,19 @@
         <v>40869</v>
       </c>
       <c r="C17" s="4">
-        <v>0.375</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="D17" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G17" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,22 +1089,22 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(G2:G23)/60</f>
-        <v>9.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E25" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="14">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>176</v>
-      </c>
-      <c r="G25" s="14"/>
+        <v>173</v>
+      </c>
+      <c r="G25" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -701,7 +701,7 @@
         <v>0.38194444444444442</v>
       </c>
       <c r="D7" s="4">
-        <v>0.27777777777777779</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>14</v>
@@ -710,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="G7" s="5">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -724,7 +724,7 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D8" s="4">
-        <v>0.28125</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
@@ -733,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="G8" s="5">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I8" s="13"/>
     </row>
@@ -933,16 +933,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D17" s="4">
-        <v>0.25</v>
+        <v>0.21527777777777779</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(G2:G23)/60</f>
-        <v>9</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -896,7 +896,7 @@
         <v>6</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -910,7 +910,7 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D16" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>14</v>
@@ -919,7 +919,7 @@
         <v>7</v>
       </c>
       <c r="G16" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,16 +933,16 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D17" s="4">
-        <v>0.21527777777777779</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G17" s="5">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="F24" s="8">
         <f>SUM(F2:F23)</f>
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G24" s="8">
         <f>SUM(G2:G23)/60</f>
-        <v>9.75</v>
+        <v>10.083333333333334</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="F25" s="14">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G25" s="15"/>
     </row>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -70,6 +70,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,24 +209,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -232,15 +223,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,13 +544,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="10"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,545 +571,589 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>40848</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="16">
         <v>0.375</v>
       </c>
-      <c r="D2" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="13">
+        <f>IF(MINUTE(C2)&lt;=MINUTE(D2),HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1)</f>
         <v>9</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="13">
+        <f t="shared" ref="G2:G7" si="0">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>40849</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="D3" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="13">
+        <f>IF(MINUTE(C3)&lt;=MINUTE(D3),HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1)</f>
         <v>4</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="13">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2">
         <v>40850</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="16">
         <v>0.4375</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="13">
+        <f>IF(MINUTE(C4)&lt;=MINUTE(D4),HOUR(D4)-HOUR(C4),HOUR(D4)-HOUR(C4)-1)</f>
         <v>8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40851</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="13">
+        <f>IF(MINUTE(C5)&lt;=MINUTE(D5),HOUR(D5)-HOUR(C5),HOUR(D5)-HOUR(C5)-1)</f>
+        <v>7</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40854</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="13">
+        <f>IF(MINUTE(C6)&lt;=MINUTE(D6),HOUR(D6)-HOUR(C6),HOUR(D6)-HOUR(C6)-1)</f>
+        <v>9</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>40855</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13">
+        <f>IF(MINUTE(C7)&lt;=MINUTE(D7),HOUR(D7)-HOUR(C7),HOUR(D7)-HOUR(C7)-1)</f>
+        <v>9</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40856</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="13">
+        <f>IF(MINUTE(C8)&lt;=MINUTE(D8),HOUR(D8)-HOUR(C8),HOUR(D8)-HOUR(C8)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="G8" s="13">
+        <f>IF(MINUTE(D8)-MINUTE(C8)&lt;0,MINUTE(D8)-MINUTE(C8)+60,MINUTE(D8)-MINUTE(C8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40857</v>
+      </c>
+      <c r="C9" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="13">
+        <f>IF(MINUTE(C9)&lt;=MINUTE(D9),HOUR(D9)-HOUR(C9),HOUR(D9)-HOUR(C9)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" ref="G9:G23" si="1">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="3">
-        <v>40851</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B10" s="2">
+        <v>40858</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="13">
+        <f>IF(MINUTE(C10)&lt;=MINUTE(D10),HOUR(D10)-HOUR(C10),HOUR(D10)-HOUR(C10)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>40861</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.80555555555555547</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="13">
+        <f>IF(MINUTE(C11)&lt;=MINUTE(D11),HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="G11" s="13">
+        <f>IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2">
+        <v>40862</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="13">
+        <f>IF(MINUTE(C12)&lt;=MINUTE(D12),HOUR(D12)-HOUR(C12),HOUR(D12)-HOUR(C12)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>40863</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>40864</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>40865</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="13">
+        <f>IF(MINUTE(C15)&lt;=MINUTE(D15),HOUR(D15)-HOUR(C15),HOUR(D15)-HOUR(C15)-1)</f>
+        <v>6</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>40868</v>
+      </c>
+      <c r="C16" s="16">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D16" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" ref="F16:F22" si="2">IF(MINUTE(C16)&lt;=MINUTE(D16),HOUR(D16)-HOUR(C16),HOUR(D16)-HOUR(C16)-1)</f>
         <v>7</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G16" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2">
+        <v>40869</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>40870</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="13">
+        <f>IF(MINUTE(C18)&lt;=MINUTE(D18),HOUR(D18)-HOUR(C18),HOUR(D18)-HOUR(C18)-1)</f>
+        <v>5</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="2">
+        <v>40871</v>
+      </c>
+      <c r="C19" s="16">
+        <v>0.4375</v>
+      </c>
+      <c r="D19" s="16">
+        <v>0.8125</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2">
+        <v>40872</v>
+      </c>
+      <c r="C20" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="13">
+        <f>IF(MINUTE(C20)&lt;=MINUTE(D20),HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3">
-        <v>40854</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="B21" s="2">
+        <v>40875</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>40876</v>
+      </c>
+      <c r="C22" s="16">
+        <v>0.375</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>40855</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.38194444444444442</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="6">
-        <v>9</v>
-      </c>
-      <c r="G7" s="5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3">
-        <v>40856</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="6">
-        <v>9</v>
-      </c>
-      <c r="G8" s="5">
-        <v>45</v>
-      </c>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3">
-        <v>40857</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B23" s="2">
+        <v>40877</v>
+      </c>
+      <c r="C23" s="16">
         <v>0.375</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3">
-        <v>40858</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0.3125</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="6">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5">
-        <v>30</v>
-      </c>
-      <c r="I10" s="13"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>40861</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="6">
-        <v>9</v>
-      </c>
-      <c r="G11" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3">
-        <v>40862</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D12" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="6">
-        <v>9</v>
-      </c>
-      <c r="G12" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <v>40863</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3">
-        <v>40864</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3">
-        <v>40865</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="6">
-        <v>6</v>
-      </c>
-      <c r="G15" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="3">
-        <v>40868</v>
-      </c>
-      <c r="C16" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D16" s="4">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="6">
-        <v>7</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="3">
-        <v>40869</v>
-      </c>
-      <c r="C17" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D17" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="6">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="3">
-        <v>40870</v>
-      </c>
-      <c r="C18" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D18" s="4">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="6">
-        <v>6</v>
-      </c>
-      <c r="G18" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3">
-        <v>40871</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="6">
-        <v>9</v>
-      </c>
-      <c r="G19" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3">
-        <v>40872</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="6">
-        <v>9</v>
-      </c>
-      <c r="G20" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="3">
-        <v>40875</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="6">
-        <v>9</v>
-      </c>
-      <c r="G21" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="3">
-        <v>40876</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D22" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="6">
-        <v>9</v>
-      </c>
-      <c r="G22" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="3">
-        <v>40877</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="6">
-        <v>9</v>
-      </c>
-      <c r="G23" s="5">
-        <v>30</v>
+      <c r="D23" s="16">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="13">
+        <f>IF(MINUTE(C23)&lt;=MINUTE(D23),HOUR(D23)-HOUR(C23),HOUR(D23)-HOUR(C23)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="14">
         <f>SUM(F2:F23)</f>
-        <v>164</v>
-      </c>
-      <c r="G24" s="8">
+        <v>170</v>
+      </c>
+      <c r="G24" s="11">
         <f>SUM(G2:G23)/60</f>
-        <v>10.083333333333334</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="15">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>174</v>
-      </c>
-      <c r="G25" s="15"/>
+        <v>176</v>
+      </c>
+      <c r="G25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -71,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="[$-409]h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -225,9 +225,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -237,10 +234,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +552,7 @@
   <cols>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="10"/>
+    <col min="6" max="7" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -571,10 +571,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -585,21 +585,21 @@
       <c r="B2" s="2">
         <v>40848</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="14">
         <v>0.375</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="14">
         <v>0.77083333333333337</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="13">
-        <f>IF(MINUTE(C2)&lt;=MINUTE(D2),HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1)</f>
+      <c r="F2" s="12">
+        <f t="shared" ref="F2:F12" si="0">IF(MINUTE(C2)&lt;=MINUTE(D2),HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1)</f>
         <v>9</v>
       </c>
-      <c r="G2" s="13">
-        <f t="shared" ref="G2:G7" si="0">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G7" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
         <v>30</v>
       </c>
       <c r="I2" s="8"/>
@@ -611,25 +611,25 @@
       <c r="B3" s="2">
         <v>40849</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="14">
         <v>0.64583333333333337</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="13">
-        <f>IF(MINUTE(C3)&lt;=MINUTE(D3),HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1)</f>
+      <c r="F3" s="12">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G3" s="13">
-        <f t="shared" si="0"/>
+      <c r="G3" s="12">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -638,21 +638,21 @@
       <c r="B4" s="2">
         <v>40850</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>0.4375</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="14">
         <v>0.77083333333333337</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="13">
-        <f>IF(MINUTE(C4)&lt;=MINUTE(D4),HOUR(D4)-HOUR(C4),HOUR(D4)-HOUR(C4)-1)</f>
+      <c r="F4" s="12">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G4" s="13">
-        <f t="shared" si="0"/>
+      <c r="G4" s="12">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -663,21 +663,21 @@
       <c r="B5" s="2">
         <v>40851</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>0.77083333333333337</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13">
-        <f>IF(MINUTE(C5)&lt;=MINUTE(D5),HOUR(D5)-HOUR(C5),HOUR(D5)-HOUR(C5)-1)</f>
+      <c r="F5" s="12">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G5" s="13">
-        <f t="shared" si="0"/>
+      <c r="G5" s="12">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H5" s="7"/>
@@ -690,21 +690,21 @@
       <c r="B6" s="2">
         <v>40854</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>0.79166666666666663</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="13">
-        <f>IF(MINUTE(C6)&lt;=MINUTE(D6),HOUR(D6)-HOUR(C6),HOUR(D6)-HOUR(C6)-1)</f>
+      <c r="F6" s="12">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G6" s="13">
-        <f t="shared" si="0"/>
+      <c r="G6" s="12">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -715,21 +715,21 @@
       <c r="B7" s="2">
         <v>40855</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>0.38194444444444442</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>0.79166666666666663</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="13">
-        <f>IF(MINUTE(C7)&lt;=MINUTE(D7),HOUR(D7)-HOUR(C7),HOUR(D7)-HOUR(C7)-1)</f>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="G7" s="13">
-        <f t="shared" si="0"/>
+      <c r="G7" s="12">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -740,25 +740,25 @@
       <c r="B8" s="2">
         <v>40856</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>0.80208333333333337</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="13">
-        <f>IF(MINUTE(C8)&lt;=MINUTE(D8),HOUR(D8)-HOUR(C8),HOUR(D8)-HOUR(C8)-1)</f>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f>IF(MINUTE(D8)-MINUTE(C8)&lt;0,MINUTE(D8)-MINUTE(C8)+60,MINUTE(D8)-MINUTE(C8))</f>
         <v>0</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -767,21 +767,21 @@
       <c r="B9" s="2">
         <v>40857</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>0.375</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="14">
         <v>0.8125</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="13">
-        <f>IF(MINUTE(C9)&lt;=MINUTE(D9),HOUR(D9)-HOUR(C9),HOUR(D9)-HOUR(C9)-1)</f>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9" s="13">
-        <f t="shared" ref="G9:G23" si="1">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
+      <c r="G9" s="12">
+        <f t="shared" ref="G9:G23" si="2">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
         <v>30</v>
       </c>
     </row>
@@ -792,21 +792,21 @@
       <c r="B10" s="2">
         <v>40858</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>0.375</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>0.8125</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="13">
-        <f>IF(MINUTE(C10)&lt;=MINUTE(D10),HOUR(D10)-HOUR(C10),HOUR(D10)-HOUR(C10)-1)</f>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G10" s="13">
-        <f t="shared" si="1"/>
+      <c r="G10" s="12">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="I10" s="8"/>
@@ -818,20 +818,20 @@
       <c r="B11" s="2">
         <v>40861</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>0.375</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>0.80555555555555547</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="13">
-        <f>IF(MINUTE(C11)&lt;=MINUTE(D11),HOUR(D11)-HOUR(C11),HOUR(D11)-HOUR(C11)-1)</f>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f>IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
         <v>20</v>
       </c>
@@ -843,21 +843,21 @@
       <c r="B12" s="2">
         <v>40862</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>0.375</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>0.80208333333333337</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="13">
-        <f>IF(MINUTE(C12)&lt;=MINUTE(D12),HOUR(D12)-HOUR(C12),HOUR(D12)-HOUR(C12)-1)</f>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G12" s="13">
-        <f t="shared" si="1"/>
+      <c r="G12" s="12">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -868,19 +868,19 @@
       <c r="B13" s="2">
         <v>40863</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
         <v>0</v>
       </c>
     </row>
@@ -891,19 +891,19 @@
       <c r="B14" s="2">
         <v>40864</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="13">
-        <v>0</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12">
         <v>0</v>
       </c>
     </row>
@@ -914,21 +914,21 @@
       <c r="B15" s="2">
         <v>40865</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="14">
         <v>0.64583333333333337</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <f>IF(MINUTE(C15)&lt;=MINUTE(D15),HOUR(D15)-HOUR(C15),HOUR(D15)-HOUR(C15)-1)</f>
         <v>6</v>
       </c>
-      <c r="G15" s="13">
-        <f t="shared" si="1"/>
+      <c r="G15" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -939,21 +939,21 @@
       <c r="B16" s="2">
         <v>40868</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>0.75</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="13">
-        <f t="shared" ref="F16:F22" si="2">IF(MINUTE(C16)&lt;=MINUTE(D16),HOUR(D16)-HOUR(C16),HOUR(D16)-HOUR(C16)-1)</f>
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:F22" si="3">IF(MINUTE(C16)&lt;=MINUTE(D16),HOUR(D16)-HOUR(C16),HOUR(D16)-HOUR(C16)-1)</f>
         <v>7</v>
       </c>
-      <c r="G16" s="13">
-        <f t="shared" si="1"/>
+      <c r="G16" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -964,21 +964,21 @@
       <c r="B17" s="2">
         <v>40869</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="14">
         <v>0.77083333333333337</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="12">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="G17" s="12">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="G17" s="13">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -989,21 +989,21 @@
       <c r="B18" s="2">
         <v>40870</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="14">
         <v>0.63541666666666663</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <f>IF(MINUTE(C18)&lt;=MINUTE(D18),HOUR(D18)-HOUR(C18),HOUR(D18)-HOUR(C18)-1)</f>
         <v>5</v>
       </c>
-      <c r="G18" s="13">
-        <f t="shared" si="1"/>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
@@ -1014,21 +1014,21 @@
       <c r="B19" s="2">
         <v>40871</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>0.4375</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="14">
         <v>0.8125</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G19" s="12">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1039,21 +1039,21 @@
       <c r="B20" s="2">
         <v>40872</v>
       </c>
-      <c r="C20" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.79166666666666663</v>
+      <c r="C20" s="14">
+        <v>0.4375</v>
+      </c>
+      <c r="D20" s="14">
+        <v>0.8125</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="12">
         <f>IF(MINUTE(C20)&lt;=MINUTE(D20),HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1)</f>
-        <v>10</v>
-      </c>
-      <c r="G20" s="13">
-        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G20" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1064,21 +1064,21 @@
       <c r="B21" s="2">
         <v>40875</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>0.375</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="14">
         <v>0.79166666666666663</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1089,21 +1089,21 @@
       <c r="B22" s="2">
         <v>40876</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>0.375</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="14">
         <v>0.79166666666666663</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="12">
         <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G22" s="13">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1114,21 +1114,21 @@
       <c r="B23" s="2">
         <v>40877</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <v>0.375</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="14">
         <v>0.79166666666666663</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <f>IF(MINUTE(C23)&lt;=MINUTE(D23),HOUR(D23)-HOUR(C23),HOUR(D23)-HOUR(C23)-1)</f>
         <v>10</v>
       </c>
-      <c r="G23" s="13">
-        <f t="shared" si="1"/>
+      <c r="G23" s="12">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1136,11 +1136,11 @@
       <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <f>SUM(F2:F23)</f>
-        <v>170</v>
-      </c>
-      <c r="G24" s="11">
+        <v>169</v>
+      </c>
+      <c r="G24" s="10">
         <f>SUM(G2:G23)/60</f>
         <v>5.666666666666667</v>
       </c>
@@ -1151,9 +1151,9 @@
       </c>
       <c r="F25" s="15">
         <f>ROUND(SUM(F24:G24),0)</f>
-        <v>176</v>
-      </c>
-      <c r="G25" s="9"/>
+        <v>175</v>
+      </c>
+      <c r="G25" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
   <si>
     <t>Día</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Sábado</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,21 +743,19 @@
       <c r="B8" s="2">
         <v>40856</v>
       </c>
-      <c r="C8" s="14">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.80208333333333337</v>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="12">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
-        <f>IF(MINUTE(D8)-MINUTE(C8)&lt;0,MINUTE(D8)-MINUTE(C8)+60,MINUTE(D8)-MINUTE(C8))</f>
         <v>0</v>
       </c>
       <c r="I8" s="8"/>
@@ -781,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ref="G9:G23" si="2">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
+        <f t="shared" ref="G9:G24" si="2">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
         <v>30</v>
       </c>
     </row>
@@ -949,7 +950,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" ref="F16:F22" si="3">IF(MINUTE(C16)&lt;=MINUTE(D16),HOUR(D16)-HOUR(C16),HOUR(D16)-HOUR(C16)-1)</f>
+        <f t="shared" ref="F16:F23" si="3">IF(MINUTE(C16)&lt;=MINUTE(D16),HOUR(D16)-HOUR(C16),HOUR(D16)-HOUR(C16)-1)</f>
         <v>7</v>
       </c>
       <c r="G16" s="12">
@@ -1040,10 +1041,10 @@
         <v>40872</v>
       </c>
       <c r="C20" s="14">
-        <v>0.4375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D20" s="14">
-        <v>0.8125</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>14</v>
@@ -1059,35 +1060,35 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2">
-        <v>40875</v>
+        <v>40873</v>
       </c>
       <c r="C21" s="14">
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="3"/>
+        <f>IF(MINUTE(C21)&lt;=MINUTE(D21),HOUR(D21)-HOUR(C21),HOUR(D21)-HOUR(C21)-1)</f>
         <v>10</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
-        <v>40876</v>
+        <v>40875</v>
       </c>
       <c r="C22" s="14">
         <v>0.375</v>
@@ -1109,10 +1110,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
-        <v>40877</v>
+        <v>40876</v>
       </c>
       <c r="C23" s="14">
         <v>0.375</v>
@@ -1124,7 +1125,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="12">
-        <f>IF(MINUTE(C23)&lt;=MINUTE(D23),HOUR(D23)-HOUR(C23),HOUR(D23)-HOUR(C23)-1)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G23" s="12">
@@ -1133,31 +1134,56 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="5" t="s">
+      <c r="A24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="2">
+        <v>40877</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D24" s="14">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="12">
+        <f>IF(MINUTE(C24)&lt;=MINUTE(D24),HOUR(D24)-HOUR(C24),HOUR(D24)-HOUR(C24)-1)</f>
+        <v>10</v>
+      </c>
+      <c r="G24" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="13">
-        <f>SUM(F2:F23)</f>
+      <c r="F25" s="13">
+        <f>SUM(F2:F24)</f>
         <v>169</v>
       </c>
-      <c r="G24" s="10">
-        <f>SUM(G2:G23)/60</f>
-        <v>5.666666666666667</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="4" t="s">
+      <c r="G25" s="10">
+        <f>SUM(G2:G24)/60</f>
+        <v>6.166666666666667</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="15">
-        <f>ROUND(SUM(F24:G24),0)</f>
+      <c r="F26" s="15">
+        <f>ROUND(SUM(F25:G25),0)</f>
         <v>175</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G26" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -1069,18 +1069,18 @@
         <v>0.375</v>
       </c>
       <c r="D21" s="14">
-        <v>0.8125</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F21" s="12">
         <f>IF(MINUTE(C21)&lt;=MINUTE(D21),HOUR(D21)-HOUR(C21),HOUR(D21)-HOUR(C21)-1)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1164,11 +1164,11 @@
       </c>
       <c r="F25" s="13">
         <f>SUM(F2:F24)</f>
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G25" s="10">
         <f>SUM(G2:G24)/60</f>
-        <v>6.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F26" s="15">
         <f>ROUND(SUM(F25:G25),0)</f>
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G26" s="16"/>
     </row>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
   <si>
     <t>Día</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Sábado</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -238,6 +241,9 @@
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,7 +553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F12" si="0">IF(MINUTE(C2)&lt;=MINUTE(D2),HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1)</f>
+        <f t="shared" ref="F2:F13" si="0">IF(MINUTE(C2)&lt;=MINUTE(D2),HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1)</f>
         <v>9</v>
       </c>
       <c r="G2" s="12">
@@ -782,7 +788,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ref="G9:G24" si="2">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
+        <f t="shared" ref="G9:G26" si="2">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
         <v>30</v>
       </c>
     </row>
@@ -814,41 +820,42 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2">
-        <v>40861</v>
+        <v>40859</v>
       </c>
       <c r="C11" s="14">
         <v>0.375</v>
       </c>
       <c r="D11" s="14">
-        <v>0.80555555555555547</v>
+        <v>0.6875</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G11" s="12">
-        <f>IF(MINUTE(D11)-MINUTE(C11)&lt;0,MINUTE(D11)-MINUTE(C11)+60,MINUTE(D11)-MINUTE(C11))</f>
-        <v>20</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="2">
-        <v>40862</v>
+        <v>40861</v>
       </c>
       <c r="C12" s="14">
         <v>0.375</v>
       </c>
       <c r="D12" s="14">
-        <v>0.80208333333333337</v>
+        <v>0.80555555555555547</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>14</v>
@@ -858,39 +865,41 @@
         <v>10</v>
       </c>
       <c r="G12" s="12">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f>IF(MINUTE(D12)-MINUTE(C12)&lt;0,MINUTE(D12)-MINUTE(C12)+60,MINUTE(D12)-MINUTE(C12))</f>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="2">
-        <v>40863</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>15</v>
+        <v>40862</v>
+      </c>
+      <c r="C13" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D13" s="14">
+        <v>0.80208333333333337</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="12">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="G13" s="12">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="2">
-        <v>40864</v>
+        <v>40863</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>15</v>
@@ -910,48 +919,46 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>40865</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D15" s="14">
-        <v>0.64583333333333337</v>
+        <v>40864</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>15</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="12">
-        <f>IF(MINUTE(C15)&lt;=MINUTE(D15),HOUR(D15)-HOUR(C15),HOUR(D15)-HOUR(C15)-1)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G15" s="12">
-        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2">
-        <v>40868</v>
+        <v>40865</v>
       </c>
       <c r="C16" s="14">
-        <v>0.45833333333333331</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D16" s="14">
-        <v>0.75</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="12">
-        <f t="shared" ref="F16:F23" si="3">IF(MINUTE(C16)&lt;=MINUTE(D16),HOUR(D16)-HOUR(C16),HOUR(D16)-HOUR(C16)-1)</f>
-        <v>7</v>
+        <f>IF(MINUTE(C16)&lt;=MINUTE(D16),HOUR(D16)-HOUR(C16),HOUR(D16)-HOUR(C16)-1)</f>
+        <v>6</v>
       </c>
       <c r="G16" s="12">
         <f t="shared" si="2"/>
@@ -960,124 +967,124 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>40866</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.375</v>
+      </c>
+      <c r="D17" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="12">
+        <f>IF(MINUTE(C17)&lt;=MINUTE(D17),HOUR(D17)-HOUR(C17),HOUR(D17)-HOUR(C17)-1)</f>
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="G17" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2">
+        <v>40868</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" ref="F18:F21" si="3">IF(MINUTE(C18)&lt;=MINUTE(D18),HOUR(D18)-HOUR(C18),HOUR(D18)-HOUR(C18)-1)</f>
+        <v>7</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2">
         <v>40869</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C19" s="14">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D19" s="14">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="12">
+      <c r="E19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="12">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G19" s="12">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B20" s="2">
         <v>40870</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C20" s="14">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D20" s="14">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="12">
-        <f>IF(MINUTE(C18)&lt;=MINUTE(D18),HOUR(D18)-HOUR(C18),HOUR(D18)-HOUR(C18)-1)</f>
+      <c r="E20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="12">
+        <f>IF(MINUTE(C20)&lt;=MINUTE(D20),HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1)</f>
         <v>5</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G20" s="12">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B21" s="2">
         <v>40871</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C21" s="14">
         <v>0.4375</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D21" s="14">
         <v>0.8125</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="12">
+      <c r="E21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" s="12">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="G19" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2">
-        <v>40872</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0.44444444444444442</v>
-      </c>
-      <c r="D20" s="14">
-        <v>0.81944444444444453</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="12">
-        <f>IF(MINUTE(C20)&lt;=MINUTE(D20),HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1)</f>
-        <v>9</v>
-      </c>
-      <c r="G20" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2">
-        <v>40873</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D21" s="14">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="12">
-        <f>IF(MINUTE(C21)&lt;=MINUTE(D21),HOUR(D21)-HOUR(C21),HOUR(D21)-HOUR(C21)-1)</f>
-        <v>8</v>
-      </c>
       <c r="G21" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
@@ -1085,23 +1092,23 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B22" s="2">
-        <v>40875</v>
+        <v>40872</v>
       </c>
       <c r="C22" s="14">
-        <v>0.375</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D22" s="14">
-        <v>0.79166666666666663</v>
+        <v>0.81944444444444453</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F22" s="12">
-        <f t="shared" si="3"/>
-        <v>10</v>
+        <f>IF(MINUTE(C22)&lt;=MINUTE(D22),HOUR(D22)-HOUR(C22),HOUR(D22)-HOUR(C22)-1)</f>
+        <v>9</v>
       </c>
       <c r="G22" s="12">
         <f t="shared" si="2"/>
@@ -1110,23 +1117,23 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>40873</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" s="14">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="12">
+        <f>IF(MINUTE(C23)&lt;=MINUTE(D23),HOUR(D23)-HOUR(C23),HOUR(D23)-HOUR(C23)-1)</f>
         <v>8</v>
-      </c>
-      <c r="B23" s="2">
-        <v>40876</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0.375</v>
-      </c>
-      <c r="D23" s="14">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="3"/>
-        <v>10</v>
       </c>
       <c r="G23" s="12">
         <f t="shared" si="2"/>
@@ -1135,55 +1142,100 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2">
-        <v>40877</v>
+        <v>40875</v>
       </c>
       <c r="C24" s="14">
-        <v>0.375</v>
+        <v>0.4548611111111111</v>
       </c>
       <c r="D24" s="14">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>14</v>
+        <v>0.8125</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>17</v>
       </c>
       <c r="F24" s="12">
-        <f>IF(MINUTE(C24)&lt;=MINUTE(D24),HOUR(D24)-HOUR(C24),HOUR(D24)-HOUR(C24)-1)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E25" s="5" t="s">
+      <c r="A25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="2">
+        <v>40876</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="12">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="2">
+        <v>40877</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="13">
-        <f>SUM(F2:F24)</f>
-        <v>167</v>
-      </c>
-      <c r="G25" s="10">
-        <f>SUM(G2:G24)/60</f>
-        <v>5.666666666666667</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E26" s="4" t="s">
+      <c r="F27" s="13">
+        <f>SUM(F2:F26)</f>
+        <v>158</v>
+      </c>
+      <c r="G27" s="10">
+        <f>SUM(G2:G26)/60</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F26" s="15">
-        <f>ROUND(SUM(F25:G25),0)</f>
-        <v>173</v>
-      </c>
-      <c r="G26" s="16"/>
+      <c r="F28" s="16">
+        <f>ROUND(SUM(F27:G27),0)</f>
+        <v>165</v>
+      </c>
+      <c r="G28" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -604,11 +604,11 @@
         <v>14</v>
       </c>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:F13" si="0">IF(MINUTE(C2)&lt;=MINUTE(D2),HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1)</f>
+        <f>IF(MINUTE(C2)&lt;=MINUTE(D2),IF(E2="NO",HOUR(D2)-HOUR(C2),HOUR(D2)-HOUR(C2)-1),IF(E2="NO",HOUR(D2)-HOUR(C2)-1,HOUR(D2)-HOUR(C2)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G2" s="12">
-        <f t="shared" ref="G2:G7" si="1">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
+        <f t="shared" ref="G2:G7" si="0">IF(MINUTE(D2)-MINUTE(C2)&lt;0,MINUTE(D2)-MINUTE(C2)+60,MINUTE(D2)-MINUTE(C2))</f>
         <v>30</v>
       </c>
       <c r="I2" s="8"/>
@@ -630,11 +630,11 @@
         <v>14</v>
       </c>
       <c r="F3" s="12">
+        <f>IF(MINUTE(C3)&lt;=MINUTE(D3),IF(E3="NO",HOUR(D3)-HOUR(C3),HOUR(D3)-HOUR(C3)-1),IF(E3="NO",HOUR(D3)-HOUR(C3)-1,HOUR(D3)-HOUR(C3)-1-1))</f>
+        <v>4</v>
+      </c>
+      <c r="G3" s="12">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G3" s="12">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="I3" s="9"/>
@@ -657,11 +657,11 @@
         <v>14</v>
       </c>
       <c r="F4" s="12">
+        <f t="shared" ref="F4:F19" si="1">IF(MINUTE(C4)&lt;=MINUTE(D4),IF(E4="NO",HOUR(D4)-HOUR(C4),HOUR(D4)-HOUR(C4)-1),IF(E4="NO",HOUR(D4)-HOUR(C4)-1,HOUR(D4)-HOUR(C4)-1-1))</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -682,11 +682,11 @@
         <v>14</v>
       </c>
       <c r="F5" s="12">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G5" s="12">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H5" s="7"/>
@@ -709,11 +709,11 @@
         <v>14</v>
       </c>
       <c r="F6" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G6" s="12">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
     </row>
@@ -734,11 +734,11 @@
         <v>14</v>
       </c>
       <c r="F7" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G7" s="12">
-        <f t="shared" si="1"/>
         <v>50</v>
       </c>
     </row>
@@ -784,11 +784,11 @@
         <v>14</v>
       </c>
       <c r="F9" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G9" s="12">
-        <f t="shared" ref="G9:G26" si="2">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
+        <f t="shared" ref="G9:G24" si="2">IF(MINUTE(D9)-MINUTE(C9)&lt;0,MINUTE(D9)-MINUTE(C9)+60,MINUTE(D9)-MINUTE(C9))</f>
         <v>30</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G10" s="12">
@@ -835,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G11" s="12">
@@ -861,7 +861,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G12" s="12">
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="G13" s="12">
@@ -957,7 +957,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="12">
-        <f>IF(MINUTE(C16)&lt;=MINUTE(D16),HOUR(D16)-HOUR(C16),HOUR(D16)-HOUR(C16)-1)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="G16" s="12">
@@ -982,7 +982,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="12">
-        <f>IF(MINUTE(C17)&lt;=MINUTE(D17),HOUR(D17)-HOUR(C17),HOUR(D17)-HOUR(C17)-1)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G17" s="12">
@@ -1007,7 +1007,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" ref="F18:F21" si="3">IF(MINUTE(C18)&lt;=MINUTE(D18),HOUR(D18)-HOUR(C18),HOUR(D18)-HOUR(C18)-1)</f>
+        <f>IF(MINUTE(C18)&lt;=MINUTE(D18),IF(E18="NO",HOUR(D18)-HOUR(C18),HOUR(D18)-HOUR(C18)-1),IF(E18="NO",HOUR(D18)-HOUR(C18)-1,HOUR(D18)-HOUR(C18)-1-1))</f>
         <v>7</v>
       </c>
       <c r="G18" s="12">
@@ -1032,7 +1032,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G19" s="12">
@@ -1057,7 +1057,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="12">
-        <f>IF(MINUTE(C20)&lt;=MINUTE(D20),HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1)</f>
+        <f>IF(MINUTE(C20)&lt;=MINUTE(D20),IF(E20="NO",HOUR(D20)-HOUR(C20),HOUR(D20)-HOUR(C20)-1),IF(E20="NO",HOUR(D20)-HOUR(C20)-1,HOUR(D20)-HOUR(C20)-1-1))</f>
         <v>5</v>
       </c>
       <c r="G20" s="12">
@@ -1082,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="12">
-        <f t="shared" si="3"/>
+        <f>IF(MINUTE(C21)&lt;=MINUTE(D21),IF(E21="NO",HOUR(D21)-HOUR(C21),HOUR(D21)-HOUR(C21)-1),IF(E21="NO",HOUR(D21)-HOUR(C21)-1,HOUR(D21)-HOUR(C21)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G21" s="12">
@@ -1107,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="12">
-        <f>IF(MINUTE(C22)&lt;=MINUTE(D22),HOUR(D22)-HOUR(C22),HOUR(D22)-HOUR(C22)-1)</f>
+        <f t="shared" ref="F22" si="3">IF(MINUTE(C22)&lt;=MINUTE(D22),IF(E22="NO",HOUR(D22)-HOUR(C22),HOUR(D22)-HOUR(C22)-1),IF(E22="NO",HOUR(D22)-HOUR(C22)-1,HOUR(D22)-HOUR(C22)-1-1))</f>
         <v>9</v>
       </c>
       <c r="G22" s="12">
@@ -1132,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="12">
-        <f>IF(MINUTE(C23)&lt;=MINUTE(D23),HOUR(D23)-HOUR(C23),HOUR(D23)-HOUR(C23)-1)</f>
+        <f>IF(MINUTE(C23)&lt;=MINUTE(D23),IF(E23="NO",HOUR(D23)-HOUR(C23),HOUR(D23)-HOUR(C23)-1),IF(E23="NO",HOUR(D23)-HOUR(C23)-1,HOUR(D23)-HOUR(C23)-1-1))</f>
         <v>8</v>
       </c>
       <c r="G23" s="12">
@@ -1157,7 +1157,8 @@
         <v>17</v>
       </c>
       <c r="F24" s="12">
-        <v>6</v>
+        <f>IF(MINUTE(C24)&lt;=MINUTE(D24),IF(E24="NO",HOUR(D24)-HOUR(C24),HOUR(D24)-HOUR(C24)-1),IF(E24="NO",HOUR(D24)-HOUR(C24)-1,HOUR(D24)-HOUR(C24)-1-1))</f>
+        <v>7</v>
       </c>
       <c r="G24" s="12">
         <f t="shared" si="2"/>
@@ -1216,7 +1217,7 @@
       </c>
       <c r="F27" s="13">
         <f>SUM(F2:F26)</f>
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G27" s="10">
         <f>SUM(G2:G26)/60</f>
@@ -1229,7 +1230,7 @@
       </c>
       <c r="F28" s="16">
         <f>ROUND(SUM(F27:G27),0)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G28" s="17"/>
     </row>

--- a/Horas/Noviembre.xlsx
+++ b/Horas/Noviembre.xlsx
@@ -973,10 +973,10 @@
         <v>40866</v>
       </c>
       <c r="C17" s="14">
-        <v>0.375</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D17" s="14">
-        <v>0.70833333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>14</v>
